--- a/Euler–Bernoulli beam/Abaqus.xlsx
+++ b/Euler–Bernoulli beam/Abaqus.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\source\Учеба\3 курс\Вычислительная механика\МКЭ\Finite_element_method\Euler–Bernoulli beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEB088-3DEF-4926-8615-2292F8F7CEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AE043-2929-4288-B687-23180B654E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="3000" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Оригинал" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,11 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>Н*м</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>Прогибы</t>
+  </si>
+  <si>
+    <t>Усилия</t>
+  </si>
+  <si>
+    <t>Моменты</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -47,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -55,13 +81,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -342,545 +532,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
-        <v>-1.0000000000000001E-32</v>
-      </c>
-      <c r="E1">
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>6.1600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>0</v>
       </c>
-      <c r="F1">
-        <v>-10000</v>
-      </c>
-      <c r="G1">
+      <c r="B4" s="3">
+        <v>-250</v>
+      </c>
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="H1">
-        <v>-2260.11</v>
-      </c>
-      <c r="I1">
-        <f>H1 + 2260.11</f>
+      <c r="D4" s="5">
+        <v>-10000</v>
+      </c>
+      <c r="E4" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2">
+      <c r="F4" s="10">
+        <f>J4*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>0.05</v>
       </c>
-      <c r="D2" s="1">
+      <c r="B5" s="3">
+        <v>-500</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="3">
+        <f>H5*1000</f>
+        <v>0.76666699999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7.6666699999999996E-4</v>
+      </c>
+      <c r="J5" s="2">
         <v>6.1639399999999998E-5</v>
       </c>
-      <c r="E2">
-        <v>0.05</v>
-      </c>
-      <c r="F2">
-        <v>-10000</v>
-      </c>
-      <c r="G2">
-        <v>0.05</v>
-      </c>
-      <c r="H2">
-        <v>-2510.11</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I22" si="0">H2 + 2260.11</f>
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>0.1</v>
       </c>
-      <c r="D3">
+      <c r="B6" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F23" si="0">H6*1000</f>
+        <v>1.55</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="J6">
         <v>1.6291100000000001E-4</v>
       </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>-10000</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>-3010.11</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>-750</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>0.15</v>
       </c>
-      <c r="D4">
+      <c r="B7" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3666700000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.36667E-3</v>
+      </c>
+      <c r="J7">
         <v>3.1170900000000002E-4</v>
       </c>
-      <c r="E4">
-        <v>0.15</v>
-      </c>
-      <c r="F4">
-        <v>-10000</v>
-      </c>
-      <c r="G4">
-        <v>0.15</v>
-      </c>
-      <c r="H4">
-        <v>-3510.11</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>-1250</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>0.2</v>
       </c>
-      <c r="D5">
+      <c r="B8" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.23333</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.23333E-3</v>
+      </c>
+      <c r="J8">
         <v>5.1592800000000002E-4</v>
       </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>-10000</v>
-      </c>
-      <c r="G5">
-        <v>0.2</v>
-      </c>
-      <c r="H5">
-        <v>-4010.11</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>-1750</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>0.25</v>
       </c>
-      <c r="D6">
+      <c r="B9" s="3">
+        <v>-2250</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666699999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.1666699999999999E-3</v>
+      </c>
+      <c r="J9">
         <v>7.8346199999999996E-4</v>
       </c>
-      <c r="E6">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>0.25</v>
       </c>
-      <c r="F6">
-        <v>-10000</v>
-      </c>
-      <c r="G6">
-        <v>0.25</v>
-      </c>
-      <c r="H6">
-        <v>-4260.1099999999997</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>-1999.9999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7">
+      <c r="B10" s="3">
+        <v>7250</v>
+      </c>
+      <c r="C10" s="13">
         <v>0.3</v>
       </c>
-      <c r="D7">
+      <c r="D10" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0166700000000004</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5.01667E-3</v>
+      </c>
+      <c r="J10">
         <v>1.0432600000000001E-3</v>
       </c>
-      <c r="E7">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>0.3</v>
       </c>
-      <c r="F7">
-        <v>-10000</v>
-      </c>
-      <c r="G7">
-        <v>0.25</v>
-      </c>
-      <c r="H7">
-        <v>5239.8900000000003</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="B11" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C11" s="13">
         <v>0.35</v>
       </c>
-      <c r="D8">
+      <c r="D11" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.6333299999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.6333299999999998E-3</v>
+      </c>
+      <c r="J11">
         <v>1.2242799999999999E-3</v>
       </c>
-      <c r="E8">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>0.35</v>
       </c>
-      <c r="F8">
-        <v>-10000</v>
-      </c>
-      <c r="G8">
-        <v>0.3</v>
-      </c>
-      <c r="H8">
-        <v>4989.8900000000003</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>7250</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="B12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="C12" s="13">
         <v>0.4</v>
       </c>
-      <c r="D9">
+      <c r="D12" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0333300000000003</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.0333299999999999E-3</v>
+      </c>
+      <c r="J12">
         <v>1.3343999999999999E-3</v>
       </c>
-      <c r="E9">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>0.4</v>
       </c>
-      <c r="F9">
-        <v>-10000</v>
-      </c>
-      <c r="G9">
-        <v>0.35</v>
-      </c>
-      <c r="H9">
-        <v>4489.8900000000003</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="B13" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C13" s="13">
         <v>0.45</v>
       </c>
-      <c r="D10">
+      <c r="D13" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2333299999999996</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.2333299999999996E-3</v>
+      </c>
+      <c r="J13">
         <v>1.38153E-3</v>
       </c>
-      <c r="E10">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>0.45</v>
       </c>
-      <c r="F10">
-        <v>-10000</v>
-      </c>
-      <c r="G10">
-        <v>0.4</v>
-      </c>
-      <c r="H10">
-        <v>3989.89</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>6250</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="B14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="C14" s="13">
         <v>0.5</v>
       </c>
-      <c r="D11">
+      <c r="D14" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="J14">
         <v>1.3735500000000001E-3</v>
       </c>
-      <c r="E11">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>0.5</v>
       </c>
-      <c r="F11">
-        <v>-10000</v>
-      </c>
-      <c r="G11">
-        <v>0.45</v>
-      </c>
-      <c r="H11">
-        <v>3489.89</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="B15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D12">
+      <c r="D15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="J15">
         <v>1.3183699999999999E-3</v>
       </c>
-      <c r="E12">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F12">
-        <v>-10000</v>
-      </c>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
-      <c r="H12">
-        <v>2989.89</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="B16" s="3">
+        <v>4500</v>
+      </c>
+      <c r="C16" s="13">
         <v>0.6</v>
       </c>
-      <c r="D13">
+      <c r="D16" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J16">
         <v>1.2238800000000001E-3</v>
       </c>
-      <c r="E13">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>0.6</v>
       </c>
-      <c r="F13">
-        <v>-10000</v>
-      </c>
-      <c r="G13">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H13">
-        <v>2489.89</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="B17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C17" s="13">
         <v>0.65</v>
       </c>
-      <c r="D14">
+      <c r="D17" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3666699999999992</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5.3666699999999996E-3</v>
+      </c>
+      <c r="J17">
         <v>1.09796E-3</v>
       </c>
-      <c r="E14">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>0.65</v>
       </c>
-      <c r="F14">
-        <v>-10000</v>
-      </c>
-      <c r="G14">
-        <v>0.6</v>
-      </c>
-      <c r="H14">
-        <v>1989.89</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15">
+      <c r="B18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="C18" s="13">
         <v>0.7</v>
       </c>
-      <c r="D15">
+      <c r="D18" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8166700000000002</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4.8166700000000003E-3</v>
+      </c>
+      <c r="J18">
         <v>9.4852800000000002E-4</v>
       </c>
-      <c r="E15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>0.7</v>
       </c>
-      <c r="F15">
-        <v>-10000</v>
-      </c>
-      <c r="G15">
-        <v>0.65</v>
-      </c>
-      <c r="H15">
-        <v>1489.89</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="B19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C19" s="13">
         <v>0.75</v>
       </c>
-      <c r="D16">
+      <c r="D19" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666699999999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4.1666699999999999E-3</v>
+      </c>
+      <c r="J19">
         <v>7.8346199999999996E-4</v>
       </c>
-      <c r="E16">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>0.75</v>
       </c>
-      <c r="F16">
-        <v>-10000</v>
-      </c>
-      <c r="G16">
-        <v>0.7</v>
-      </c>
-      <c r="H16">
-        <v>989.89</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17">
+      <c r="B20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C20" s="13">
         <v>0.8</v>
       </c>
-      <c r="D17">
+      <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4333300000000002</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3.4333300000000001E-3</v>
+      </c>
+      <c r="J20">
         <v>6.1066099999999997E-4</v>
       </c>
-      <c r="E17">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>0.8</v>
       </c>
-      <c r="F17">
-        <v>-10000</v>
-      </c>
-      <c r="G17">
-        <v>0.75</v>
-      </c>
-      <c r="H17">
-        <v>489.89</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18">
+      <c r="B21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="13">
         <v>0.85</v>
       </c>
-      <c r="D18">
+      <c r="D21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6333299999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2.6333300000000001E-3</v>
+      </c>
+      <c r="J21">
         <v>4.3802000000000001E-4</v>
       </c>
-      <c r="E18">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>0.85</v>
       </c>
-      <c r="F18">
-        <v>-10000</v>
-      </c>
-      <c r="G18">
-        <v>0.8</v>
-      </c>
-      <c r="H18">
-        <v>-10.1104</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>2249.9996000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19">
+      <c r="B22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C22" s="13">
         <v>0.9</v>
       </c>
-      <c r="D19">
+      <c r="D22" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7833300000000001</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.7833300000000001E-3</v>
+      </c>
+      <c r="J22">
         <v>2.7343400000000003E-4</v>
       </c>
-      <c r="E19">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>0.9</v>
       </c>
-      <c r="F19">
-        <v>-10000</v>
-      </c>
-      <c r="G19">
-        <v>0.85</v>
-      </c>
-      <c r="H19">
-        <v>-510.11</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20">
+      <c r="B23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="13">
         <v>0.95</v>
       </c>
-      <c r="D20">
+      <c r="D23" s="5">
+        <v>-10000</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="J23">
         <v>1.24795E-4</v>
       </c>
-      <c r="E20">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>0.95</v>
       </c>
-      <c r="F20">
-        <v>-10000</v>
-      </c>
-      <c r="G20">
-        <v>0.9</v>
-      </c>
-      <c r="H20">
-        <v>-1010.11</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21">
+      <c r="B24" s="3">
+        <v>500</v>
+      </c>
+      <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>1.0000000000000001E-32</v>
-      </c>
-      <c r="E21">
+      <c r="D24" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E24" s="13">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>-10000</v>
-      </c>
-      <c r="G21">
-        <v>0.95</v>
-      </c>
-      <c r="H21">
-        <v>-1510.11</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>750.00000000000023</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G22">
+      <c r="F24" s="3">
+        <f t="shared" ref="F5:F24" si="1">J24*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>-1760.11</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>500.00000000000023</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D23" t="e">
-        <f ca="1" xml:space="preserve"> _xludf.MAX(D3:D20)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="B25" s="4">
+        <v>250</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>